--- a/ConceptMap-R5-RiskAssessment-elements-for-R4-RiskAssessment.xlsx
+++ b/ConceptMap-R5-RiskAssessment-elements-for-R4-RiskAssessment.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="115">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:34.2006193-06:00</t>
+    <t>2026-02-09T22:05:44.2036485-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -177,9 +177,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.basedOn</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.basedOn</t>
-  </si>
-  <si>
     <t>RiskAssessment.parent</t>
   </si>
   <si>
@@ -189,9 +186,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.parent</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.parent</t>
-  </si>
-  <si>
     <t>RiskAssessment.status</t>
   </si>
   <si>
@@ -201,9 +195,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.status</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.status</t>
-  </si>
-  <si>
     <t>RiskAssessment.method</t>
   </si>
   <si>
@@ -222,9 +213,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.code</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.code</t>
-  </si>
-  <si>
     <t>RiskAssessment.subject</t>
   </si>
   <si>
@@ -243,9 +231,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.encounter</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.context</t>
-  </si>
-  <si>
     <t>RiskAssessment.occurrence[x]</t>
   </si>
   <si>
@@ -255,9 +240,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.occurrence[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.date</t>
-  </si>
-  <si>
     <t>RiskAssessment.condition</t>
   </si>
   <si>
@@ -288,12 +270,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.reasonReference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.reason[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.reason</t>
-  </si>
-  <si>
     <t>RiskAssessment.basis</t>
   </si>
   <si>
@@ -339,9 +315,6 @@
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.prediction.qualitativeRisk</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.prediction.qualitativeRisk</t>
-  </si>
-  <si>
     <t>RiskAssessment.prediction.relativeRisk</t>
   </si>
   <si>
@@ -385,12 +358,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.note</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/StructureDefinition/RiskAssessment#RiskAssessment.comment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-RiskAssessment.note</t>
   </si>
 </sst>
 </file>
@@ -647,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -791,419 +758,276 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="E28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="B37" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B39" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B40" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B42" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/ConceptMap-R5-RiskAssessment-elements-for-R4-RiskAssessment.xlsx
+++ b/ConceptMap-R5-RiskAssessment-elements-for-R4-RiskAssessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:44.2036485-06:00</t>
+    <t>2026-02-17T14:42:27.5280407-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
